--- a/十一月销售数据/用户保险信息金鹤园四期10-25.xlsx
+++ b/十一月销售数据/用户保险信息金鹤园四期10-25.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
-    <sheet name="20元" sheetId="1" r:id="rId1"/>
-    <sheet name="40元" sheetId="2" r:id="rId2"/>
-    <sheet name="60元" sheetId="3" r:id="rId3"/>
+    <sheet name="20元" sheetId="2" r:id="rId1"/>
+    <sheet name="60元" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>武煤百江燃气用户保险信息登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,36 +69,6 @@
   <si>
     <t>门店销售人员姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015744</t>
-  </si>
-  <si>
-    <t>8552306520</t>
-  </si>
-  <si>
-    <t>刘运荪</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>420106195508252087</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>13343498495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武汉市武昌区马道门20号1楼 </t>
-  </si>
-  <si>
-    <t>农讲所</t>
-  </si>
-  <si>
-    <t>吴顺成</t>
   </si>
   <si>
     <t>226316001105663</t>
@@ -461,9 +430,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -537,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,15 +535,6 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,11 +547,14 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -640,30 +600,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -957,492 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="8" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="28.5" customHeight="1">
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10">
-        <v>226316001102739</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="11">
-        <v>20326</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>60040</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.21" right="0.16" top="0.27" bottom="0.16" header="0.24" footer="0.16"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1466,18 +921,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
@@ -1526,63 +981,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1">
-      <c r="A3" s="14">
+    <row r="3" spans="1:15" s="13" customFormat="1">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>43033</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="14">
+        <v>43033</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="15" t="s">
-        <v>32</v>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="7"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1592,26 +1049,28 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="14">
+        <v>43033</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="15" t="s">
-        <v>37</v>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1621,26 +1080,28 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="14">
+        <v>43033</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
-        <v>42</v>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1650,26 +1111,28 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="14">
+        <v>43033</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="15" t="s">
-        <v>47</v>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1679,26 +1142,28 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="14">
+        <v>43033</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="15" t="s">
-        <v>52</v>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="7"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1708,26 +1173,28 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="14">
+        <v>43033</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
-        <v>57</v>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="7"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1737,26 +1204,28 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="14">
+        <v>43033</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="15" t="s">
-        <v>66</v>
+      <c r="D10" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="7"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1766,26 +1235,28 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="14">
+        <v>43033</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="15" t="s">
-        <v>67</v>
+      <c r="D11" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="7"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1795,26 +1266,28 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="14">
+        <v>43033</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="15" t="s">
-        <v>72</v>
+      <c r="D12" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="7"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1824,26 +1297,28 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="14">
+        <v>43033</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="15" t="s">
-        <v>77</v>
+      <c r="D13" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="7"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1853,26 +1328,28 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="14">
+        <v>43033</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="15" t="s">
-        <v>85</v>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="7"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1882,26 +1359,28 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="14">
+        <v>43033</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="15" t="s">
-        <v>86</v>
+      <c r="D15" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="7"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1911,26 +1390,28 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="14">
+        <v>43033</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="15" t="s">
-        <v>87</v>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="7"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1940,26 +1421,28 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="14">
+        <v>43033</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="15" t="s">
-        <v>88</v>
+      <c r="D17" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="7"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1969,26 +1452,28 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="14">
+        <v>43033</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="15" t="s">
-        <v>89</v>
+      <c r="D18" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1998,26 +1483,28 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="14">
+        <v>43033</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="15" t="s">
-        <v>90</v>
+      <c r="D19" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="7"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2027,26 +1514,28 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="14">
+        <v>43033</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="15" t="s">
-        <v>91</v>
+      <c r="D20" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="7"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2073,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O23"/>
@@ -2103,18 +1592,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
